--- a/Areport_PDF/2021A/2021A.xlsx
+++ b/Areport_PDF/2021A/2021A.xlsx
@@ -1126,12 +1126,8 @@
       <c r="AC4" s="12" t="n">
         <v>700000000</v>
       </c>
-      <c r="AD4" s="12" t="n">
-        <v>12113</v>
-      </c>
-      <c r="AE4" s="12" t="n">
-        <v>0.0017</v>
-      </c>
+      <c r="AD4" s="12" t="inlineStr"/>
+      <c r="AE4" s="12" t="inlineStr"/>
       <c r="AF4" s="12" t="n"/>
       <c r="AG4" s="12" t="n"/>
     </row>
@@ -1217,12 +1213,8 @@
       <c r="AC5" s="12" t="n">
         <v>800000000</v>
       </c>
-      <c r="AD5" s="12" t="n">
-        <v>3265</v>
-      </c>
-      <c r="AE5" s="12" t="n">
-        <v>0.0004</v>
-      </c>
+      <c r="AD5" s="12" t="inlineStr"/>
+      <c r="AE5" s="12" t="inlineStr"/>
       <c r="AF5" s="12" t="n"/>
       <c r="AG5" s="12" t="n"/>
     </row>
@@ -1314,12 +1306,8 @@
       <c r="AC6" s="12" t="n">
         <v>100000000</v>
       </c>
-      <c r="AD6" s="12" t="n">
-        <v>477</v>
-      </c>
-      <c r="AE6" s="12" t="n">
-        <v>0</v>
-      </c>
+      <c r="AD6" s="12" t="inlineStr"/>
+      <c r="AE6" s="12" t="inlineStr"/>
       <c r="AF6" s="12" t="n"/>
       <c r="AG6" s="12" t="n"/>
     </row>
@@ -1678,12 +1666,8 @@
       <c r="AC10" s="12" t="n">
         <v>900000000</v>
       </c>
-      <c r="AD10" s="12" t="n">
-        <v>37</v>
-      </c>
-      <c r="AE10" s="12" t="n">
-        <v>0</v>
-      </c>
+      <c r="AD10" s="12" t="inlineStr"/>
+      <c r="AE10" s="12" t="inlineStr"/>
       <c r="AF10" s="12" t="n"/>
       <c r="AG10" s="12" t="n"/>
     </row>
